--- a/doc/tables/sens3_SCA.xlsx
+++ b/doc/tables/sens3_SCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Label</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>SR_BH_steep</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Q_extraSD_REC_PR(6)</t>
@@ -1592,9 +1589,7 @@
       <c r="E22" s="2">
         <v>0.72</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="2">
         <v>0.72</v>
       </c>
@@ -1624,7 +1619,7 @@
     </row>
     <row r="23" spans="1:26" ht="38.15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>0.129386</v>
@@ -1670,7 +1665,7 @@
     </row>
     <row r="24" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>34.589100000000002</v>
@@ -1716,7 +1711,7 @@
     </row>
     <row r="25" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>-9</v>
@@ -1762,7 +1757,7 @@
     </row>
     <row r="26" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>3.7721800000000001</v>
@@ -1808,7 +1803,7 @@
     </row>
     <row r="27" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -1854,7 +1849,7 @@
     </row>
     <row r="28" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>10</v>
@@ -1900,7 +1895,7 @@
     </row>
     <row r="29" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>57.519300000000001</v>
@@ -1946,7 +1941,7 @@
     </row>
     <row r="30" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>5.1162099999999997</v>
@@ -1992,7 +1987,7 @@
     </row>
     <row r="31" spans="1:26" ht="38.15" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>28.041899999999998</v>
@@ -2038,7 +2033,7 @@
     </row>
     <row r="32" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>3.7536100000000001</v>
@@ -2084,7 +2079,7 @@
     </row>
     <row r="33" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>4.9304699999999997</v>
@@ -2130,7 +2125,7 @@
     </row>
     <row r="34" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2">
         <v>-4.6557300000000001</v>
@@ -2176,7 +2171,7 @@
     </row>
     <row r="35" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>16.879799999999999</v>
@@ -2222,7 +2217,7 @@
     </row>
     <row r="36" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>3.1139700000000001</v>
@@ -2268,7 +2263,7 @@
     </row>
     <row r="37" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2">
         <v>4.0700200000000004</v>
@@ -2314,7 +2309,7 @@
     </row>
     <row r="38" spans="1:26" ht="38.15" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>31.312899999999999</v>
@@ -2360,7 +2355,7 @@
     </row>
     <row r="39" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2">
         <v>3.81338</v>
@@ -2406,7 +2401,7 @@
     </row>
     <row r="40" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2">
         <v>4.5246899999999997</v>
@@ -2452,7 +2447,7 @@
     </row>
     <row r="41" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2">
         <v>-3.1497299999999999</v>
@@ -2498,7 +2493,7 @@
     </row>
     <row r="42" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2">
         <v>50.422499999999999</v>
@@ -2544,7 +2539,7 @@
     </row>
     <row r="43" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="2">
         <v>5.5292899999999996</v>
@@ -2590,7 +2585,7 @@
     </row>
     <row r="44" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>10</v>
@@ -2636,7 +2631,7 @@
     </row>
     <row r="45" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2">
         <v>10</v>
@@ -2682,7 +2677,7 @@
     </row>
     <row r="46" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>-8.0136500000000002</v>
@@ -2728,7 +2723,7 @@
     </row>
     <row r="47" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2">
         <v>42.336500000000001</v>
@@ -2774,7 +2769,7 @@
     </row>
     <row r="48" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2">
         <v>5.6813399999999996</v>
@@ -2820,7 +2815,7 @@
     </row>
     <row r="49" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>10</v>
@@ -2866,7 +2861,7 @@
     </row>
     <row r="50" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
         <v>10</v>
@@ -2912,7 +2907,7 @@
     </row>
     <row r="51" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
         <v>46.188099999999999</v>
@@ -2958,7 +2953,7 @@
     </row>
     <row r="52" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>5.0437599999999998</v>
@@ -3004,7 +2999,7 @@
     </row>
     <row r="53" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2">
         <v>2.1040899999999998</v>
@@ -3050,7 +3045,7 @@
     </row>
     <row r="54" spans="1:26" ht="50.6" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="2">
         <v>4.2515699999999997E-2</v>
@@ -3096,7 +3091,7 @@
     </row>
     <row r="55" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>50.659799999999997</v>
@@ -3142,7 +3137,7 @@
     </row>
     <row r="56" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2">
         <v>5.0445200000000003</v>
@@ -3188,7 +3183,7 @@
     </row>
     <row r="57" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="2">
         <v>8</v>
@@ -3234,7 +3229,7 @@
     </row>
     <row r="58" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="2">
         <v>10</v>
@@ -3280,7 +3275,7 @@
     </row>
     <row r="59" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2">
         <v>27.4788</v>
@@ -3326,7 +3321,7 @@
     </row>
     <row r="60" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2">
         <v>3.5874100000000002</v>
@@ -3372,7 +3367,7 @@
     </row>
     <row r="61" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="2">
         <v>4.84389</v>
@@ -3418,7 +3413,7 @@
     </row>
     <row r="62" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2">
         <v>-0.28057799999999999</v>
@@ -3464,7 +3459,7 @@
     </row>
     <row r="63" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="2">
         <v>29.0213</v>
@@ -3510,7 +3505,7 @@
     </row>
     <row r="64" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="2">
         <v>3.7261000000000002</v>
@@ -3556,7 +3551,7 @@
     </row>
     <row r="65" spans="1:26" ht="75.45" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2">
         <v>5.8957499999999996</v>
@@ -3602,7 +3597,7 @@
     </row>
     <row r="66" spans="1:26" ht="63" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2">
         <v>-7</v>
@@ -3648,32 +3643,18 @@
     </row>
     <row r="67" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="2">
         <v>0.72016199999999997</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3694,32 +3675,18 @@
     </row>
     <row r="68" spans="1:26" ht="38.15" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="2">
         <v>1.11188</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3740,7 +3707,7 @@
     </row>
     <row r="69" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2">
         <v>0.49535200000000001</v>
@@ -3786,7 +3753,7 @@
     </row>
     <row r="70" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2">
         <v>1053.33</v>
@@ -3832,7 +3799,7 @@
     </row>
     <row r="71" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2">
         <v>6579.59</v>
@@ -3878,7 +3845,7 @@
     </row>
     <row r="72" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2">
         <v>785.50199999999995</v>
@@ -3924,7 +3891,7 @@
     </row>
     <row r="73" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2">
         <v>140.63200000000001</v>
@@ -3970,7 +3937,7 @@
     </row>
     <row r="74" spans="1:26" ht="25.75" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2">
         <v>159.97200000000001</v>
